--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qualitrix\Desktop\VDN_Selenium\VDN_selenium\Diksha_selenium_new\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA5C8B-5971-45CF-AB82-558F6C1687D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12670" windowHeight="5960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,35 +816,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5334C-69B1-4D68-A679-6D8FB5FD50E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -864,7 +859,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,11 +876,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -898,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -966,11 +961,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -983,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1034,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1238,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1323,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1374,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1391,7 +1386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1408,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1442,7 +1437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1459,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1595,7 +1590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -1629,7 +1624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1646,7 +1641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -1663,7 +1658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1714,7 +1709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -1727,7 +1722,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -1740,7 +1735,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -1753,7 +1748,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1761,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -1779,7 +1774,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -1792,7 +1787,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -1805,7 +1800,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
@@ -1818,7 +1813,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
@@ -1831,7 +1826,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -1844,7 +1839,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -1857,7 +1852,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
@@ -1870,7 +1865,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -1883,7 +1878,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -1896,7 +1891,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -1909,7 +1904,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -1922,9 +1917,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" xr:uid="{ECB0A916-1588-43C6-A6FF-02EB34500F32}"/>
+    <hyperlink ref="B67" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/414496a938aa6d5c/Desktop/VDN_Sourcing_Regression/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_092AD11640C2E8B3C8F50765A0CEC8C1F98CDF41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4126E14-B477-4637-A4F7-148F50BE947A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12670" windowHeight="5960" activeTab="1"/>
+    <workbookView minimized="1" xWindow="4425" yWindow="345" windowWidth="16410" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -415,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,35 +810,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -859,7 +853,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -944,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -978,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -995,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1063,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1131,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1233,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1267,7 +1261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1335,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1352,7 +1346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1369,7 +1363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1386,7 +1380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1420,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1454,7 +1448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1471,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -1488,7 +1482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1505,7 +1499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1573,7 +1567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1607,7 +1601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -1624,7 +1618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -1722,7 +1716,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -1735,7 +1729,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -1748,7 +1742,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -1761,7 +1755,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -1774,7 +1768,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -1787,7 +1781,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -1800,11 +1794,11 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -1813,7 +1807,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
@@ -1826,7 +1820,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -1839,7 +1833,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -1852,7 +1846,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
@@ -1865,7 +1859,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -1878,7 +1872,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -1891,7 +1885,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -1904,7 +1898,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -1917,11 +1911,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B67" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B59" r:id="rId4" xr:uid="{0FF6FCDC-0F57-46FF-92DA-B80E927C920F}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12670" windowHeight="5960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15190" windowHeight="5960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -536,6 +536,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1804,10 +1805,10 @@
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="1"/>
@@ -1920,8 +1921,10 @@
     <hyperlink ref="B67" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B59" r:id="rId4"/>
+    <hyperlink ref="C59" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/414496a938aa6d5c/Desktop/VDN_Sourcing_Regression/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_092AD11640C2E8B3C8F50765A0CEC8C1F98CDF41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4126E14-B477-4637-A4F7-148F50BE947A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_092AD11640C2E8B3C8F50765A0CEC8C1F98CDF41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6EA5F0-F260-466D-80C1-85669D63D835}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4425" yWindow="345" windowWidth="16410" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="130">
   <si>
     <t>Creator</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>color5@yopmail.com</t>
+  </si>
+  <si>
+    <t>User Roles</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>User Role1</t>
+  </si>
+  <si>
+    <t>Jaga2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -516,12 +528,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,6 +555,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,6 +572,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,12 +841,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -825,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15190" windowHeight="5960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qualitrix\Desktop\VDN_Selenium\VDN_selenium\Diksha_selenium_new\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA5C8B-5971-45CF-AB82-558F6C1687D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -541,6 +536,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,35 +817,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5334C-69B1-4D68-A679-6D8FB5FD50E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -864,7 +860,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,11 +877,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -898,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -966,11 +962,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -983,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1323,7 +1319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1374,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1391,7 +1387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1476,7 +1472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -1493,7 +1489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1510,7 +1506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -1561,7 +1557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1578,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +1608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1646,7 +1642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -1663,7 +1659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1714,7 +1710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -1740,7 +1736,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -1753,7 +1749,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1762,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -1779,7 +1775,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -1792,7 +1788,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -1805,20 +1801,20 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
@@ -1831,7 +1827,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -1844,7 +1840,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -1857,7 +1853,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
@@ -1870,7 +1866,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -1883,7 +1879,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -1896,7 +1892,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -1909,7 +1905,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -1922,9 +1918,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" xr:uid="{ECB0A916-1588-43C6-A6FF-02EB34500F32}"/>
+    <hyperlink ref="B67" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B59" r:id="rId4"/>
+    <hyperlink ref="C59" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TestData/VDNProd_Latest.xlsx
+++ b/TestData/VDNProd_Latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15110" windowHeight="5960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1740,7 +1740,7 @@
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1923,8 +1923,9 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B59" r:id="rId4"/>
     <hyperlink ref="C59" r:id="rId5"/>
+    <hyperlink ref="B54" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>